--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3304" yWindow="2735" windowWidth="17425" windowHeight="9499" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="13287" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -397,1101 +397,1112 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="AKZ31" sqref="AKZ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.95"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-2.45</v>
+        <v>-2.5</v>
       </c>
       <c r="B1" t="n">
-        <v>5.364735297865497</v>
+        <v>5.651527855896044</v>
       </c>
       <c r="C1" t="n">
-        <v>5.451740423107499</v>
+        <v>5.298529178722209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.4</v>
+        <v>-2.45</v>
       </c>
       <c r="B2" t="n">
-        <v>5.084536819448849</v>
+        <v>5.364735297865497</v>
       </c>
       <c r="C2" t="n">
-        <v>5.084536819448849</v>
+        <v>5.364735297865497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.35</v>
+        <v>-2.4</v>
       </c>
       <c r="B3" t="n">
-        <v>4.811026647209157</v>
+        <v>5.084536819448849</v>
       </c>
       <c r="C3" t="n">
-        <v>4.811026647209157</v>
+        <v>5.084536819448849</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.3</v>
+        <v>-2.35</v>
       </c>
       <c r="B4" t="n">
-        <v>4.544294787823279</v>
+        <v>4.811026647209157</v>
       </c>
       <c r="C4" t="n">
-        <v>4.544294787823279</v>
+        <v>4.811026647209157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.25</v>
+        <v>-2.3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.284426803112079</v>
+        <v>4.544294787823279</v>
       </c>
       <c r="C5" t="n">
-        <v>4.284426803112079</v>
+        <v>4.544294787823279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.2</v>
+        <v>-2.25</v>
       </c>
       <c r="B6" t="n">
-        <v>4.031503596180411</v>
+        <v>4.284426803112079</v>
       </c>
       <c r="C6" t="n">
-        <v>4.031503596180411</v>
+        <v>4.284426803112079</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.15</v>
+        <v>-2.2</v>
       </c>
       <c r="B7" t="n">
-        <v>3.785601209201502</v>
+        <v>4.031503596180411</v>
       </c>
       <c r="C7" t="n">
-        <v>3.785601209201502</v>
+        <v>4.222369484038104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.1</v>
+        <v>-2.15</v>
       </c>
       <c r="B8" t="n">
-        <v>3.546790633351126</v>
+        <v>3.785601209201502</v>
       </c>
       <c r="C8" t="n">
-        <v>3.546790633351126</v>
+        <v>3.785601209201502</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.05</v>
+        <v>-2.1</v>
       </c>
       <c r="B9" t="n">
-        <v>3.315137631366624</v>
+        <v>3.546790633351126</v>
       </c>
       <c r="C9" t="n">
-        <v>3.315137631366624</v>
+        <v>3.546790633351126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2</v>
+        <v>-2.05</v>
       </c>
       <c r="B10" t="n">
-        <v>3.090702573174318</v>
+        <v>3.315137631366624</v>
       </c>
       <c r="C10" t="n">
-        <v>3.090702573174318</v>
+        <v>3.315137631366624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.95</v>
+        <v>-2</v>
       </c>
       <c r="B11" t="n">
-        <v>2.87354028499613</v>
+        <v>3.090702573174318</v>
       </c>
       <c r="C11" t="n">
-        <v>2.87354028499613</v>
+        <v>3.090702573174318</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.9</v>
+        <v>-1.95</v>
       </c>
       <c r="B12" t="n">
-        <v>2.663699912312585</v>
+        <v>2.87354028499613</v>
       </c>
       <c r="C12" t="n">
-        <v>2.663699912312585</v>
+        <v>2.83029204605428</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.85</v>
+        <v>-1.9</v>
       </c>
       <c r="B13" t="n">
-        <v>2.461224797024701</v>
+        <v>2.663699912312585</v>
       </c>
       <c r="C13" t="n">
-        <v>2.461224797024701</v>
+        <v>2.663699912312585</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.8</v>
+        <v>-1.85</v>
       </c>
       <c r="B14" t="n">
-        <v>2.266152369121804</v>
+        <v>2.461224797024701</v>
       </c>
       <c r="C14" t="n">
-        <v>2.40730756629056</v>
+        <v>2.461224797024701</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.75</v>
+        <v>-1.8</v>
       </c>
       <c r="B15" t="n">
-        <v>2.078514053126063</v>
+        <v>2.266152369121804</v>
       </c>
       <c r="C15" t="n">
-        <v>2.078514053126063</v>
+        <v>2.266152369121804</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.7</v>
+        <v>-1.75</v>
       </c>
       <c r="B16" t="n">
-        <v>1.898335189547531</v>
+        <v>2.078514053126063</v>
       </c>
       <c r="C16" t="n">
-        <v>1.898335189547531</v>
+        <v>2.078514053126063</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.65</v>
+        <v>-1.7</v>
       </c>
       <c r="B17" t="n">
-        <v>1.725634971546081</v>
+        <v>1.898335189547531</v>
       </c>
       <c r="C17" t="n">
-        <v>1.725634971546081</v>
+        <v>1.803637088953163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.6</v>
+        <v>-1.65</v>
       </c>
       <c r="B18" t="n">
-        <v>1.560426396958495</v>
+        <v>1.725634971546081</v>
       </c>
       <c r="C18" t="n">
-        <v>1.560426396958495</v>
+        <v>1.725634971546081</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.55</v>
+        <v>-1.6</v>
       </c>
       <c r="B19" t="n">
-        <v>1.402716235810642</v>
+        <v>1.560426396958495</v>
       </c>
       <c r="C19" t="n">
-        <v>1.402716235810642</v>
+        <v>1.560426396958495</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.5</v>
+        <v>-1.55</v>
       </c>
       <c r="B20" t="n">
-        <v>1.252505013395945</v>
+        <v>1.402716235810642</v>
       </c>
       <c r="C20" t="n">
-        <v>1.252505013395945</v>
+        <v>1.402716235810642</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.45</v>
+        <v>-1.5</v>
       </c>
       <c r="B21" t="n">
-        <v>1.109787008962412</v>
+        <v>1.252505013395945</v>
       </c>
       <c r="C21" t="n">
-        <v>1.109787008962412</v>
+        <v>1.252505013395945</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-1.4</v>
+        <v>-1.45</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9745502700115396</v>
+        <v>1.109787008962412</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9745502700115396</v>
+        <v>0.8642688323179202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-1.35</v>
+        <v>-1.4</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8467766421733405</v>
+        <v>0.9745502700115396</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8467766421733405</v>
+        <v>0.9745502700115396</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-1.3</v>
+        <v>-1.35</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7264418145828065</v>
+        <v>0.8467766421733405</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7264418145828065</v>
+        <v>0.8467766421733405</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-1.25</v>
+        <v>-1.3</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6135153806444138</v>
+        <v>0.7264418145828065</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6135153806444138</v>
+        <v>0.7264418145828065</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-1.2</v>
+        <v>-1.25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5079609140327737</v>
+        <v>0.6135153806444138</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03356522342304175</v>
+        <v>0.6135153806444138</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1.15</v>
+        <v>-1.2</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4097360597394788</v>
+        <v>0.5079609140327737</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4097360597394788</v>
+        <v>0.5079609140327737</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-1.1</v>
+        <v>-1.15</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3187926399385644</v>
+        <v>0.4097360597394788</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3187926399385644</v>
+        <v>-0.02904672581535722</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-1.05</v>
+        <v>-1.1</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2350767744059827</v>
+        <v>0.3187926399385644</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2350767744059827</v>
+        <v>0.3187926399385644</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-1</v>
+        <v>-1.05</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1585290151921035</v>
+        <v>0.2350767744059827</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1585290151921035</v>
+        <v>0.2350767744059827</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.95</v>
+        <v>-1</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08908449521062622</v>
+        <v>0.1585290151921035</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08908449521062622</v>
+        <v>0.1585290151921035</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.8999999999999999</v>
+        <v>-0.95</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02667309037251653</v>
+        <v>0.08908449521062622</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02667309037251653</v>
+        <v>0.08908449521062622</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.8499999999999999</v>
+        <v>-0.8999999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.02878040514029279</v>
+        <v>0.02667309037251653</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.02878040514029279</v>
+        <v>0.06079958538559589</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.7999999999999998</v>
+        <v>-0.8499999999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.07735609089952289</v>
+        <v>-0.02878040514029279</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.07735609089952289</v>
+        <v>-0.02878040514029279</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.75</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.1191387600233341</v>
+        <v>-0.07735609089952289</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1191387600233341</v>
+        <v>-0.07735609089952289</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.7</v>
+        <v>-0.75</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.1542176872376911</v>
+        <v>-0.1191387600233341</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1542176872376911</v>
+        <v>-0.1191387600233341</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.6499999999999999</v>
+        <v>-0.7</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.1826864057360397</v>
+        <v>-0.1542176872376911</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1826864057360397</v>
+        <v>-0.1542176872376911</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.5999999999999999</v>
+        <v>-0.6499999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.2046424733950354</v>
+        <v>-0.1826864057360397</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06282489947099501</v>
+        <v>-0.2935387113085164</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.5499999999999998</v>
+        <v>-0.5999999999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.2201872289306592</v>
+        <v>-0.2046424733950354</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.2201872289306592</v>
+        <v>-0.2046424733950354</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.5</v>
+        <v>-0.5499999999999998</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.229425538604203</v>
+        <v>-0.2201872289306592</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.229425538604203</v>
+        <v>-0.2201872289306592</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.4499999999999997</v>
+        <v>-0.5</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.2324655341112302</v>
+        <v>-0.229425538604203</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.2324655341112302</v>
+        <v>-0.229425538604203</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.3999999999999999</v>
+        <v>-0.4499999999999997</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.2294183423086505</v>
+        <v>-0.2324655341112302</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.2294183423086505</v>
+        <v>-0.2324655341112302</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.3500000000000001</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.2203978074554514</v>
+        <v>-0.2294183423086505</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.2203978074554514</v>
+        <v>-0.4883974902141306</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.2999999999999998</v>
+        <v>-0.3500000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.2055202066613395</v>
+        <v>-0.2203978074554514</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.2055202066613395</v>
+        <v>-0.2203978074554514</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.25</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.1849039592545229</v>
+        <v>-0.2055202066613395</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.1849039592545229</v>
+        <v>-0.2055202066613395</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.1999999999999997</v>
+        <v>-0.25</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1586693307950611</v>
+        <v>-0.1849039592545229</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.1586693307950611</v>
+        <v>-0.1849039592545229</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.1499999999999999</v>
+        <v>-0.1999999999999997</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1269381324735992</v>
+        <v>-0.1586693307950611</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1269381324735992</v>
+        <v>-0.1586693307950611</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.09999999999999964</v>
+        <v>-0.1499999999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.08983341664682787</v>
+        <v>-0.1269381324735992</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.08983341664682787</v>
+        <v>-0.3239163358544049</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.04999999999999982</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.04747916927067817</v>
+        <v>-0.08983341664682787</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.04747916927067817</v>
+        <v>-0.08983341664682787</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>-0.04747916927067817</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.2473269041489151</v>
+        <v>-0.04747916927067817</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.05000000000000027</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.05247916927067862</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.05247916927067862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.05000000000000027</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1098334166468283</v>
+        <v>0.05247916927067862</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1098334166468283</v>
+        <v>0.05247916927067862</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.1500000000000004</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1719381324735997</v>
+        <v>0.1098334166468283</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1719381324735997</v>
+        <v>0.1098334166468283</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.1500000000000004</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2386693307950614</v>
+        <v>0.1719381324735997</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2386693307950614</v>
+        <v>0.2671595490322419</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.25</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="B55" t="n">
-        <v>0.309903959254523</v>
+        <v>0.2386693307950614</v>
       </c>
       <c r="C55" t="n">
-        <v>0.309903959254523</v>
+        <v>0.2386693307950614</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.3000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="B56" t="n">
-        <v>0.38552020666134</v>
+        <v>0.309903959254523</v>
       </c>
       <c r="C56" t="n">
-        <v>0.38552020666134</v>
+        <v>0.309903959254523</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.3000000000000003</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4653978074554515</v>
+        <v>0.38552020666134</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4653978074554515</v>
+        <v>0.38552020666134</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5494183423086511</v>
+        <v>0.4653978074554515</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5494183423086511</v>
+        <v>0.4653978074554515</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.4500000000000002</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6374655341112305</v>
+        <v>0.5494183423086511</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6374655341112305</v>
+        <v>0.6314554056773048</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.5</v>
+        <v>0.4500000000000002</v>
       </c>
       <c r="B60" t="n">
-        <v>0.729425538604203</v>
+        <v>0.6374655341112305</v>
       </c>
       <c r="C60" t="n">
-        <v>0.729425538604203</v>
+        <v>0.6374655341112305</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.5500000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8251872289306597</v>
+        <v>0.729425538604203</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8251872289306597</v>
+        <v>0.729425538604203</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.5500000000000003</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9246424733950356</v>
+        <v>0.8251872289306597</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9246424733950356</v>
+        <v>0.8251872289306597</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.6500000000000004</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B63" t="n">
-        <v>1.02768640573604</v>
+        <v>0.9246424733950356</v>
       </c>
       <c r="C63" t="n">
-        <v>0.852491858081288</v>
+        <v>0.9246424733950356</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.6500000000000004</v>
       </c>
       <c r="B64" t="n">
-        <v>1.134217687237691</v>
+        <v>1.02768640573604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.134217687237691</v>
+        <v>1.157463870202589</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.75</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="B65" t="n">
-        <v>1.244138760023334</v>
+        <v>1.134217687237691</v>
       </c>
       <c r="C65" t="n">
-        <v>1.244138760023334</v>
+        <v>1.134217687237691</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.8000000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="B66" t="n">
-        <v>1.357356090899523</v>
+        <v>1.244138760023334</v>
       </c>
       <c r="C66" t="n">
-        <v>1.357356090899523</v>
+        <v>1.244138760023334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.8000000000000003</v>
       </c>
       <c r="B67" t="n">
-        <v>1.473780405140293</v>
+        <v>1.357356090899523</v>
       </c>
       <c r="C67" t="n">
-        <v>1.473780405140293</v>
+        <v>1.357356090899523</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9000000000000004</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>1.593326909627484</v>
+        <v>1.473780405140293</v>
       </c>
       <c r="C68" t="n">
-        <v>1.593326909627484</v>
+        <v>1.473780405140293</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9500000000000002</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="B69" t="n">
-        <v>1.715915504789374</v>
+        <v>1.593326909627484</v>
       </c>
       <c r="C69" t="n">
-        <v>1.715915504789374</v>
+        <v>1.489457950754121</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>0.9500000000000002</v>
       </c>
       <c r="B70" t="n">
-        <v>1.841470984807897</v>
+        <v>1.715915504789374</v>
       </c>
       <c r="C70" t="n">
-        <v>1.841470984807897</v>
+        <v>1.715915504789374</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>1.969923225594018</v>
+        <v>1.841470984807897</v>
       </c>
       <c r="C71" t="n">
-        <v>1.969923225594018</v>
+        <v>1.841470984807897</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="B72" t="n">
-        <v>2.101207360061435</v>
+        <v>1.969923225594018</v>
       </c>
       <c r="C72" t="n">
-        <v>2.101207360061435</v>
+        <v>1.969923225594018</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="B73" t="n">
-        <v>2.235263940260522</v>
+        <v>2.101207360061435</v>
       </c>
       <c r="C73" t="n">
-        <v>2.235263940260522</v>
+        <v>2.101207360061435</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="B74" t="n">
-        <v>2.372039085967227</v>
+        <v>2.235263940260522</v>
       </c>
       <c r="C74" t="n">
-        <v>2.372039085967227</v>
+        <v>2.296174912686635</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="B75" t="n">
-        <v>2.511484619355586</v>
+        <v>2.372039085967227</v>
       </c>
       <c r="C75" t="n">
-        <v>2.411050930944391</v>
+        <v>2.372039085967227</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="B76" t="n">
-        <v>2.653558185417194</v>
+        <v>2.511484619355586</v>
       </c>
       <c r="C76" t="n">
-        <v>2.653558185417194</v>
+        <v>2.511484619355586</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="B77" t="n">
-        <v>2.798223357826659</v>
+        <v>2.653558185417194</v>
       </c>
       <c r="C77" t="n">
-        <v>2.798223357826659</v>
+        <v>2.653558185417194</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="B78" t="n">
-        <v>2.945449729988461</v>
+        <v>2.798223357826659</v>
       </c>
       <c r="C78" t="n">
-        <v>2.945449729988461</v>
+        <v>2.798223357826659</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="B79" t="n">
-        <v>3.095212991037589</v>
+        <v>2.945449729988461</v>
       </c>
       <c r="C79" t="n">
-        <v>3.095212991037589</v>
+        <v>2.945449729988461</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="B80" t="n">
-        <v>3.247494986604055</v>
+        <v>3.095212991037589</v>
       </c>
       <c r="C80" t="n">
-        <v>3.247494986604055</v>
+        <v>2.681156382326473</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="B81" t="n">
-        <v>3.402283764189356</v>
+        <v>3.247494986604055</v>
       </c>
       <c r="C81" t="n">
-        <v>3.402283764189356</v>
+        <v>3.247494986604055</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.600000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="B82" t="n">
-        <v>3.559573603041507</v>
+        <v>3.402283764189356</v>
       </c>
       <c r="C82" t="n">
-        <v>3.559573603041507</v>
+        <v>3.402283764189356</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.65</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="B83" t="n">
-        <v>3.71936502845392</v>
+        <v>3.559573603041507</v>
       </c>
       <c r="C83" t="n">
-        <v>3.71936502845392</v>
+        <v>3.559573603041507</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="B84" t="n">
-        <v>3.881664810452469</v>
+        <v>3.71936502845392</v>
       </c>
       <c r="C84" t="n">
-        <v>3.881664810452469</v>
+        <v>3.71936502845392</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="B85" t="n">
-        <v>4.046485946873937</v>
+        <v>3.881664810452469</v>
       </c>
       <c r="C85" t="n">
-        <v>4.046485946873937</v>
+        <v>3.81278516432288</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="B86" t="n">
-        <v>4.213847630878194</v>
+        <v>4.046485946873937</v>
       </c>
       <c r="C86" t="n">
-        <v>4.213847630878194</v>
+        <v>4.046485946873937</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.850000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="B87" t="n">
-        <v>4.383775202975302</v>
+        <v>4.213847630878194</v>
       </c>
       <c r="C87" t="n">
-        <v>4.305269945354887</v>
+        <v>4.213847630878194</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.9</v>
+        <v>1.850000000000001</v>
       </c>
       <c r="B88" t="n">
-        <v>4.556300087687416</v>
+        <v>4.383775202975302</v>
       </c>
       <c r="C88" t="n">
-        <v>4.556300087687416</v>
+        <v>4.383775202975302</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="B89" t="n">
-        <v>4.73145971500387</v>
+        <v>4.556300087687416</v>
       </c>
       <c r="C89" t="n">
-        <v>4.73145971500387</v>
+        <v>4.556300087687416</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="B90" t="n">
-        <v>4.909297426825682</v>
+        <v>4.73145971500387</v>
       </c>
       <c r="C90" t="n">
-        <v>4.909297426825682</v>
+        <v>4.98003818365999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="B91" t="n">
-        <v>5.089862368633375</v>
+        <v>4.909297426825682</v>
       </c>
       <c r="C91" t="n">
-        <v>5.089862368633375</v>
+        <v>4.909297426825682</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.100000000000001</v>
+        <v>2.05</v>
       </c>
       <c r="B92" t="n">
-        <v>5.273209366648875</v>
+        <v>5.089862368633375</v>
       </c>
       <c r="C92" t="n">
-        <v>5.273209366648875</v>
+        <v>5.089862368633375</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.15</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="B93" t="n">
-        <v>5.459398790798499</v>
+        <v>5.273209366648875</v>
       </c>
       <c r="C93" t="n">
-        <v>5.459398790798499</v>
+        <v>5.273209366648875</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="B94" t="n">
-        <v>5.648496403819591</v>
+        <v>5.459398790798499</v>
       </c>
       <c r="C94" t="n">
-        <v>5.648496403819591</v>
+        <v>5.459398790798499</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="B95" t="n">
-        <v>5.840573196887921</v>
+        <v>5.648496403819591</v>
       </c>
       <c r="C95" t="n">
-        <v>5.840573196887921</v>
+        <v>5.575228684305706</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.300000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="B96" t="n">
-        <v>6.035705212176723</v>
+        <v>5.840573196887921</v>
       </c>
       <c r="C96" t="n">
-        <v>6.035705212176723</v>
+        <v>5.840573196887921</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.350000000000001</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="B97" t="n">
-        <v>6.233973352790847</v>
+        <v>6.035705212176723</v>
       </c>
       <c r="C97" t="n">
-        <v>6.233973352790847</v>
+        <v>6.035705212176723</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.4</v>
+        <v>2.350000000000001</v>
       </c>
       <c r="B98" t="n">
-        <v>6.435463180551152</v>
+        <v>6.233973352790847</v>
       </c>
       <c r="C98" t="n">
-        <v>6.435463180551152</v>
+        <v>6.233973352790847</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6.435463180551152</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6.435463180551152</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
         <v>2.45</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B100" t="n">
         <v>6.640264702134505</v>
       </c>
-      <c r="C99" t="n">
-        <v>6.369120305445221</v>
+      <c r="C100" t="n">
+        <v>6.600218385781414</v>
       </c>
     </row>
   </sheetData>
